--- a/file4.xlsx
+++ b/file4.xlsx
@@ -838,7 +838,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,13 +889,6 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1043,20 +1036,21 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1068,12 +1062,11 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1433,133 +1426,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1609,7 +1602,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2150,10 +2143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2163,6 +2156,7 @@
     <col min="8" max="8" width="23.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="20.8833333333333" customWidth="1"/>
     <col min="10" max="10" width="25.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:10">
@@ -2226,7 +2220,7 @@
         <v>65</v>
       </c>
       <c r="J2">
-        <f>F2*(H2+I2)/2-G2</f>
+        <f t="shared" ref="J2:J65" si="0">F2*(H2+I2)/2-G2</f>
         <v>284500</v>
       </c>
     </row>
@@ -2259,7 +2253,7 @@
         <v>18</v>
       </c>
       <c r="J3">
-        <f>F3*(H3+I3)/2-G3</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
@@ -2292,7 +2286,7 @@
         <v>9.6</v>
       </c>
       <c r="J4">
-        <f>F4*(H4+I4)/2-G4</f>
+        <f t="shared" si="0"/>
         <v>109550</v>
       </c>
     </row>
@@ -2325,7 +2319,7 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <f>F5*(H5+I5)/2-G5</f>
+        <f t="shared" si="0"/>
         <v>101500</v>
       </c>
     </row>
@@ -2358,7 +2352,7 @@
         <v>120</v>
       </c>
       <c r="J6">
-        <f>F6*(H6+I6)/2-G6</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
@@ -2391,7 +2385,7 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <f>F7*(H7+I7)/2-G7</f>
+        <f t="shared" si="0"/>
         <v>81100</v>
       </c>
     </row>
@@ -2424,7 +2418,7 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <f>F8*(H8+I8)/2-G8</f>
+        <f t="shared" si="0"/>
         <v>74000</v>
       </c>
     </row>
@@ -2457,7 +2451,7 @@
         <v>7.2</v>
       </c>
       <c r="J9">
-        <f>F9*(H9+I9)/2-G9</f>
+        <f t="shared" si="0"/>
         <v>53900</v>
       </c>
     </row>
@@ -2490,7 +2484,7 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <f>F10*(H10+I10)/2-G10</f>
+        <f t="shared" si="0"/>
         <v>49000</v>
       </c>
     </row>
@@ -2523,7 +2517,7 @@
         <v>7.2</v>
       </c>
       <c r="J11">
-        <f>F11*(H11+I11)/2-G11</f>
+        <f t="shared" si="0"/>
         <v>44880</v>
       </c>
     </row>
@@ -2556,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <f>F12*(H12+I12)/2-G12</f>
+        <f t="shared" si="0"/>
         <v>41600</v>
       </c>
     </row>
@@ -2589,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <f>F13*(H13+I13)/2-G13</f>
+        <f t="shared" si="0"/>
         <v>40900</v>
       </c>
     </row>
@@ -2622,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <f>F14*(H14+I14)/2-G14</f>
+        <f t="shared" si="0"/>
         <v>33200</v>
       </c>
     </row>
@@ -2655,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <f>F15*(H15+I15)/2-G15</f>
+        <f t="shared" si="0"/>
         <v>28130</v>
       </c>
     </row>
@@ -2688,7 +2682,7 @@
         <v>10.8</v>
       </c>
       <c r="J16">
-        <f>F16*(H16+I16)/2-G16</f>
+        <f t="shared" si="0"/>
         <v>28080</v>
       </c>
     </row>
@@ -2721,7 +2715,7 @@
         <v>5.8</v>
       </c>
       <c r="J17">
-        <f>F17*(H17+I17)/2-G17</f>
+        <f t="shared" si="0"/>
         <v>27600</v>
       </c>
     </row>
@@ -2754,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="J18">
-        <f>F18*(H18+I18)/2-G18</f>
+        <f t="shared" si="0"/>
         <v>26410</v>
       </c>
     </row>
@@ -2787,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <f>F19*(H19+I19)/2-G19</f>
+        <f t="shared" si="0"/>
         <v>26400</v>
       </c>
     </row>
@@ -2820,7 +2814,7 @@
         <v>7.2</v>
       </c>
       <c r="J20">
-        <f>F20*(H20+I20)/2-G20</f>
+        <f t="shared" si="0"/>
         <v>26150</v>
       </c>
     </row>
@@ -2853,7 +2847,7 @@
         <v>7.5</v>
       </c>
       <c r="J21">
-        <f>F21*(H21+I21)/2-G21</f>
+        <f t="shared" si="0"/>
         <v>25750</v>
       </c>
     </row>
@@ -2886,7 +2880,7 @@
         <v>4.8</v>
       </c>
       <c r="J22">
-        <f>F22*(H22+I22)/2-G22</f>
+        <f t="shared" si="0"/>
         <v>25300</v>
       </c>
     </row>
@@ -2919,7 +2913,7 @@
         <v>7.2</v>
       </c>
       <c r="J23">
-        <f>F23*(H23+I23)/2-G23</f>
+        <f t="shared" si="0"/>
         <v>24800</v>
       </c>
     </row>
@@ -2952,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <f>F24*(H24+I24)/2-G24</f>
+        <f t="shared" si="0"/>
         <v>24500</v>
       </c>
     </row>
@@ -2985,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="J25">
-        <f>F25*(H25+I25)/2-G25</f>
+        <f t="shared" si="0"/>
         <v>24250</v>
       </c>
     </row>
@@ -3018,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="J26">
-        <f>F26*(H26+I26)/2-G26</f>
+        <f t="shared" si="0"/>
         <v>23000</v>
       </c>
     </row>
@@ -3051,7 +3045,7 @@
         <v>7.8</v>
       </c>
       <c r="J27">
-        <f>F27*(H27+I27)/2-G27</f>
+        <f t="shared" si="0"/>
         <v>22640</v>
       </c>
     </row>
@@ -3084,7 +3078,7 @@
         <v>9.6</v>
       </c>
       <c r="J28">
-        <f>F28*(H28+I28)/2-G28</f>
+        <f t="shared" si="0"/>
         <v>22320</v>
       </c>
     </row>
@@ -3117,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="J29">
-        <f>F29*(H29+I29)/2-G29</f>
+        <f t="shared" si="0"/>
         <v>22000</v>
       </c>
     </row>
@@ -3150,7 +3144,7 @@
         <v>7.5</v>
       </c>
       <c r="J30">
-        <f>F30*(H30+I30)/2-G30</f>
+        <f t="shared" si="0"/>
         <v>21150</v>
       </c>
     </row>
@@ -3183,7 +3177,7 @@
         <v>4.8</v>
       </c>
       <c r="J31">
-        <f>F31*(H31+I31)/2-G31</f>
+        <f t="shared" si="0"/>
         <v>21100</v>
       </c>
     </row>
@@ -3216,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="J32">
-        <f>F32*(H32+I32)/2-G32</f>
+        <f t="shared" si="0"/>
         <v>21000</v>
       </c>
     </row>
@@ -3249,7 +3243,7 @@
         <v>6.5</v>
       </c>
       <c r="J33">
-        <f>F33*(H33+I33)/2-G33</f>
+        <f t="shared" si="0"/>
         <v>21000</v>
       </c>
     </row>
@@ -3282,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="J34">
-        <f>F34*(H34+I34)/2-G34</f>
+        <f t="shared" si="0"/>
         <v>20500</v>
       </c>
     </row>
@@ -3315,7 +3309,7 @@
         <v>7.2</v>
       </c>
       <c r="J35">
-        <f>F35*(H35+I35)/2-G35</f>
+        <f t="shared" si="0"/>
         <v>20460</v>
       </c>
     </row>
@@ -3348,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <f>F36*(H36+I36)/2-G36</f>
+        <f t="shared" si="0"/>
         <v>19925</v>
       </c>
     </row>
@@ -3381,7 +3375,7 @@
         <v>6</v>
       </c>
       <c r="J37">
-        <f>F37*(H37+I37)/2-G37</f>
+        <f t="shared" si="0"/>
         <v>19000</v>
       </c>
     </row>
@@ -3414,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="J38">
-        <f>F38*(H38+I38)/2-G38</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -3447,7 +3441,7 @@
         <v>8</v>
       </c>
       <c r="J39">
-        <f>F39*(H39+I39)/2-G39</f>
+        <f t="shared" si="0"/>
         <v>17700</v>
       </c>
     </row>
@@ -3480,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="J40">
-        <f>F40*(H40+I40)/2-G40</f>
+        <f t="shared" si="0"/>
         <v>17610</v>
       </c>
     </row>
@@ -3513,7 +3507,7 @@
         <v>8</v>
       </c>
       <c r="J41">
-        <f>F41*(H41+I41)/2-G41</f>
+        <f t="shared" si="0"/>
         <v>17500</v>
       </c>
     </row>
@@ -3546,7 +3540,7 @@
         <v>6.5</v>
       </c>
       <c r="J42">
-        <f>F42*(H42+I42)/2-G42</f>
+        <f t="shared" si="0"/>
         <v>16800</v>
       </c>
     </row>
@@ -3579,7 +3573,7 @@
         <v>9.6</v>
       </c>
       <c r="J43">
-        <f>F43*(H43+I43)/2-G43</f>
+        <f t="shared" si="0"/>
         <v>16500</v>
       </c>
     </row>
@@ -3612,7 +3606,7 @@
         <v>7.5</v>
       </c>
       <c r="J44">
-        <f>F44*(H44+I44)/2-G44</f>
+        <f t="shared" si="0"/>
         <v>16350</v>
       </c>
     </row>
@@ -3645,7 +3639,7 @@
         <v>6.7</v>
       </c>
       <c r="J45">
-        <f>F45*(H45+I45)/2-G45</f>
+        <f t="shared" si="0"/>
         <v>16275</v>
       </c>
     </row>
@@ -3678,7 +3672,7 @@
         <v>7.8</v>
       </c>
       <c r="J46">
-        <f>F46*(H46+I46)/2-G46</f>
+        <f t="shared" si="0"/>
         <v>16160</v>
       </c>
     </row>
@@ -3711,7 +3705,7 @@
         <v>6</v>
       </c>
       <c r="J47">
-        <f>F47*(H47+I47)/2-G47</f>
+        <f t="shared" si="0"/>
         <v>15750</v>
       </c>
     </row>
@@ -3744,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="J48">
-        <f>F48*(H48+I48)/2-G48</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
@@ -3777,7 +3771,7 @@
         <v>10.2</v>
       </c>
       <c r="J49">
-        <f>F49*(H49+I49)/2-G49</f>
+        <f t="shared" si="0"/>
         <v>14360</v>
       </c>
     </row>
@@ -3810,7 +3804,7 @@
         <v>6.5</v>
       </c>
       <c r="J50">
-        <f>F50*(H50+I50)/2-G50</f>
+        <f t="shared" si="0"/>
         <v>13750</v>
       </c>
     </row>
@@ -3843,11 +3837,11 @@
         <v>8.5</v>
       </c>
       <c r="J51">
-        <f>F51*(H51+I51)/2-G51</f>
+        <f t="shared" si="0"/>
         <v>13300</v>
       </c>
     </row>
-    <row r="52" ht="15.75" spans="1:10">
+    <row r="52" ht="15.75" spans="1:11">
       <c r="A52" s="6">
         <v>53</v>
       </c>
@@ -3876,11 +3870,15 @@
         <v>6.7</v>
       </c>
       <c r="J52">
-        <f>F52*(H52+I52)/2-G52</f>
+        <f t="shared" si="0"/>
         <v>13225</v>
       </c>
-    </row>
-    <row r="53" ht="15.75" spans="1:10">
+      <c r="K52">
+        <f>J52/(J52-J53)</f>
+        <v>58.7777777777778</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:11">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -3909,11 +3907,15 @@
         <v>7.5</v>
       </c>
       <c r="J53">
-        <f>F53*(H53+I53)/2-G53</f>
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
-    </row>
-    <row r="54" ht="15.75" spans="1:10">
+      <c r="K53">
+        <f>J53/(J53-J54)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:11">
       <c r="A54" s="6">
         <v>48</v>
       </c>
@@ -3942,11 +3944,15 @@
         <v>8</v>
       </c>
       <c r="J54">
-        <f>F54*(H54+I54)/2-G54</f>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-    </row>
-    <row r="55" ht="15.75" spans="1:10">
+      <c r="K54">
+        <f>J54/(J54-J55)</f>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="1:11">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3975,11 +3981,15 @@
         <v>6.5</v>
       </c>
       <c r="J55">
-        <f>F55*(H55+I55)/2-G55</f>
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" spans="1:10">
+      <c r="K55">
+        <f>J55/(J55-J56)</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" spans="1:11">
       <c r="A56" s="6">
         <v>61</v>
       </c>
@@ -4008,8 +4018,12 @@
         <v>8.5</v>
       </c>
       <c r="J56">
-        <f>F56*(H56+I56)/2-G56</f>
+        <f t="shared" si="0"/>
         <v>10600</v>
+      </c>
+      <c r="K56">
+        <f>J56/(J56-J57)</f>
+        <v>106</v>
       </c>
     </row>
     <row r="57" ht="15.75" spans="1:10">
@@ -4041,7 +4055,7 @@
         <v>3</v>
       </c>
       <c r="J57">
-        <f>F57*(H57+I57)/2-G57</f>
+        <f t="shared" si="0"/>
         <v>10500</v>
       </c>
     </row>
@@ -4074,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="J58">
-        <f>F58*(H58+I58)/2-G58</f>
+        <f t="shared" si="0"/>
         <v>9500</v>
       </c>
     </row>
@@ -4107,7 +4121,7 @@
         <v>4</v>
       </c>
       <c r="J59">
-        <f>F59*(H59+I59)/2-G59</f>
+        <f t="shared" si="0"/>
         <v>9250</v>
       </c>
     </row>
@@ -4140,7 +4154,7 @@
         <v>5.4</v>
       </c>
       <c r="J60">
-        <f>F60*(H60+I60)/2-G60</f>
+        <f t="shared" si="0"/>
         <v>7260</v>
       </c>
     </row>
@@ -4173,7 +4187,7 @@
         <v>4.5</v>
       </c>
       <c r="J61">
-        <f>F61*(H61+I61)/2-G61</f>
+        <f t="shared" si="0"/>
         <v>6600</v>
       </c>
     </row>
@@ -4206,7 +4220,7 @@
         <v>4.5</v>
       </c>
       <c r="J62">
-        <f>F62*(H62+I62)/2-G62</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
     </row>
@@ -4239,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="J63">
-        <f>F63*(H63+I63)/2-G63</f>
+        <f t="shared" si="0"/>
         <v>5150</v>
       </c>
     </row>
@@ -4272,7 +4286,7 @@
         <v>4</v>
       </c>
       <c r="J64">
-        <f>F64*(H64+I64)/2-G64</f>
+        <f t="shared" si="0"/>
         <v>4825</v>
       </c>
     </row>
@@ -4305,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="J65">
-        <f>F65*(H65+I65)/2-G65</f>
+        <f t="shared" si="0"/>
         <v>4500</v>
       </c>
     </row>
@@ -4338,7 +4352,7 @@
         <v>50</v>
       </c>
       <c r="J66">
-        <f>F66*(H66+I66)/2-G66</f>
+        <f t="shared" ref="J66:J108" si="1">F66*(H66+I66)/2-G66</f>
         <v>4050</v>
       </c>
     </row>
@@ -4371,7 +4385,7 @@
         <v>50</v>
       </c>
       <c r="J67">
-        <f>F67*(H67+I67)/2-G67</f>
+        <f t="shared" si="1"/>
         <v>3850</v>
       </c>
     </row>
@@ -4404,7 +4418,7 @@
         <v>50</v>
       </c>
       <c r="J68">
-        <f>F68*(H68+I68)/2-G68</f>
+        <f t="shared" si="1"/>
         <v>3650</v>
       </c>
     </row>
@@ -4437,7 +4451,7 @@
         <v>8.5</v>
       </c>
       <c r="J69">
-        <f>F69*(H69+I69)/2-G69</f>
+        <f t="shared" si="1"/>
         <v>3577.5</v>
       </c>
     </row>
@@ -4470,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="J70">
-        <f>F70*(H70+I70)/2-G70</f>
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
     </row>
@@ -4503,7 +4517,7 @@
         <v>8.5</v>
       </c>
       <c r="J71">
-        <f>F71*(H71+I71)/2-G71</f>
+        <f t="shared" si="1"/>
         <v>3390</v>
       </c>
     </row>
@@ -4536,7 +4550,7 @@
         <v>6.5</v>
       </c>
       <c r="J72">
-        <f>F72*(H72+I72)/2-G72</f>
+        <f t="shared" si="1"/>
         <v>3380</v>
       </c>
     </row>
@@ -4569,7 +4583,7 @@
         <v>8.5</v>
       </c>
       <c r="J73">
-        <f>F73*(H73+I73)/2-G73</f>
+        <f t="shared" si="1"/>
         <v>3350</v>
       </c>
     </row>
@@ -4602,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="J74">
-        <f>F74*(H74+I74)/2-G74</f>
+        <f t="shared" si="1"/>
         <v>3275</v>
       </c>
     </row>
@@ -4635,7 +4649,7 @@
         <v>8.5</v>
       </c>
       <c r="J75">
-        <f>F75*(H75+I75)/2-G75</f>
+        <f t="shared" si="1"/>
         <v>3202.5</v>
       </c>
     </row>
@@ -4668,7 +4682,7 @@
         <v>6.5</v>
       </c>
       <c r="J76">
-        <f>F76*(H76+I76)/2-G76</f>
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
     </row>
@@ -4701,7 +4715,7 @@
         <v>8.5</v>
       </c>
       <c r="J77">
-        <f>F77*(H77+I77)/2-G77</f>
+        <f t="shared" si="1"/>
         <v>3162.5</v>
       </c>
     </row>
@@ -4734,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="J78">
-        <f>F78*(H78+I78)/2-G78</f>
+        <f t="shared" si="1"/>
         <v>3050</v>
       </c>
     </row>
@@ -4767,7 +4781,7 @@
         <v>6.5</v>
       </c>
       <c r="J79">
-        <f>F79*(H79+I79)/2-G79</f>
+        <f t="shared" si="1"/>
         <v>3020</v>
       </c>
     </row>
@@ -4800,7 +4814,7 @@
         <v>8.5</v>
       </c>
       <c r="J80">
-        <f>F80*(H80+I80)/2-G80</f>
+        <f t="shared" si="1"/>
         <v>2975</v>
       </c>
     </row>
@@ -4833,7 +4847,7 @@
         <v>9</v>
       </c>
       <c r="J81">
-        <f>F81*(H81+I81)/2-G81</f>
+        <f t="shared" si="1"/>
         <v>2950</v>
       </c>
     </row>
@@ -4866,7 +4880,7 @@
         <v>8</v>
       </c>
       <c r="J82">
-        <f>F82*(H82+I82)/2-G82</f>
+        <f t="shared" si="1"/>
         <v>2820</v>
       </c>
     </row>
@@ -4899,7 +4913,7 @@
         <v>9</v>
       </c>
       <c r="J83">
-        <f>F83*(H83+I83)/2-G83</f>
+        <f t="shared" si="1"/>
         <v>2785</v>
       </c>
     </row>
@@ -4932,7 +4946,7 @@
         <v>9</v>
       </c>
       <c r="J84">
-        <f>F84*(H84+I84)/2-G84</f>
+        <f t="shared" si="1"/>
         <v>2620</v>
       </c>
     </row>
@@ -4965,7 +4979,7 @@
         <v>3.5</v>
       </c>
       <c r="J85">
-        <f>F85*(H85+I85)/2-G85</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
@@ -4998,7 +5012,7 @@
         <v>7.5</v>
       </c>
       <c r="J86">
-        <f>F86*(H86+I86)/2-G86</f>
+        <f t="shared" si="1"/>
         <v>2451.25</v>
       </c>
     </row>
@@ -5031,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="J87">
-        <f>F87*(H87+I87)/2-G87</f>
+        <f t="shared" si="1"/>
         <v>2350</v>
       </c>
     </row>
@@ -5064,7 +5078,7 @@
         <v>3.5</v>
       </c>
       <c r="J88">
-        <f>F88*(H88+I88)/2-G88</f>
+        <f t="shared" si="1"/>
         <v>2350</v>
       </c>
     </row>
@@ -5097,7 +5111,7 @@
         <v>7.5</v>
       </c>
       <c r="J89">
-        <f>F89*(H89+I89)/2-G89</f>
+        <f t="shared" si="1"/>
         <v>2340</v>
       </c>
     </row>
@@ -5130,7 +5144,7 @@
         <v>7.5</v>
       </c>
       <c r="J90">
-        <f>F90*(H90+I90)/2-G90</f>
+        <f t="shared" si="1"/>
         <v>2316.25</v>
       </c>
     </row>
@@ -5163,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="J91">
-        <f>F91*(H91+I91)/2-G91</f>
+        <f t="shared" si="1"/>
         <v>2210</v>
       </c>
     </row>
@@ -5196,7 +5210,7 @@
         <v>7.5</v>
       </c>
       <c r="J92">
-        <f>F92*(H92+I92)/2-G92</f>
+        <f t="shared" si="1"/>
         <v>2205</v>
       </c>
     </row>
@@ -5229,7 +5243,7 @@
         <v>3.5</v>
       </c>
       <c r="J93">
-        <f>F93*(H93+I93)/2-G93</f>
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
     </row>
@@ -5262,7 +5276,7 @@
         <v>7.5</v>
       </c>
       <c r="J94">
-        <f>F94*(H94+I94)/2-G94</f>
+        <f t="shared" si="1"/>
         <v>2181.25</v>
       </c>
     </row>
@@ -5295,7 +5309,7 @@
         <v>8</v>
       </c>
       <c r="J95">
-        <f>F95*(H95+I95)/2-G95</f>
+        <f t="shared" si="1"/>
         <v>2100</v>
       </c>
     </row>
@@ -5328,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="J96">
-        <f>F96*(H96+I96)/2-G96</f>
+        <f t="shared" si="1"/>
         <v>2070</v>
       </c>
     </row>
@@ -5361,7 +5375,7 @@
         <v>7.5</v>
       </c>
       <c r="J97">
-        <f>F97*(H97+I97)/2-G97</f>
+        <f t="shared" si="1"/>
         <v>2070</v>
       </c>
     </row>
@@ -5394,7 +5408,7 @@
         <v>8</v>
       </c>
       <c r="J98">
-        <f>F98*(H98+I98)/2-G98</f>
+        <f t="shared" si="1"/>
         <v>1960</v>
       </c>
     </row>
@@ -5427,7 +5441,7 @@
         <v>6</v>
       </c>
       <c r="J99">
-        <f>F99*(H99+I99)/2-G99</f>
+        <f t="shared" si="1"/>
         <v>1910</v>
       </c>
     </row>
@@ -5460,7 +5474,7 @@
         <v>8</v>
       </c>
       <c r="J100">
-        <f>F100*(H100+I100)/2-G100</f>
+        <f t="shared" si="1"/>
         <v>1855</v>
       </c>
     </row>
@@ -5493,7 +5507,7 @@
         <v>6</v>
       </c>
       <c r="J101">
-        <f>F101*(H101+I101)/2-G101</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
     </row>
@@ -5526,7 +5540,7 @@
         <v>6</v>
       </c>
       <c r="J102">
-        <f>F102*(H102+I102)/2-G102</f>
+        <f t="shared" si="1"/>
         <v>1690</v>
       </c>
     </row>
@@ -5559,7 +5573,7 @@
         <v>4</v>
       </c>
       <c r="J103">
-        <f>F103*(H103+I103)/2-G103</f>
+        <f t="shared" si="1"/>
         <v>1487.5</v>
       </c>
     </row>
@@ -5592,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="J104">
-        <f>F104*(H104+I104)/2-G104</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
     </row>
@@ -5625,7 +5639,7 @@
         <v>4</v>
       </c>
       <c r="J105">
-        <f>F105*(H105+I105)/2-G105</f>
+        <f t="shared" si="1"/>
         <v>1312.5</v>
       </c>
     </row>
@@ -5658,7 +5672,7 @@
         <v>4</v>
       </c>
       <c r="J106">
-        <f>F106*(H106+I106)/2-G106</f>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
     </row>
@@ -5691,7 +5705,7 @@
         <v>4</v>
       </c>
       <c r="J107">
-        <f>F107*(H107+I107)/2-G107</f>
+        <f t="shared" si="1"/>
         <v>835</v>
       </c>
     </row>
@@ -5724,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="J108">
-        <f>F108*(H108+I108)/2-G108</f>
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
     </row>
